--- a/data2/Health Data Not Adopted.xlsx
+++ b/data2/Health Data Not Adopted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730752F2-B234-344A-A76A-5887F6788146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA8730-F556-0941-8756-70D3252A1D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17840" yWindow="-2900" windowWidth="16500" windowHeight="16940" xr2:uid="{DC19E9CE-06AD-3B4E-BD9B-92DBFFB5C294}"/>
+    <workbookView xWindow="8380" yWindow="3800" windowWidth="23460" windowHeight="16940" xr2:uid="{DC19E9CE-06AD-3B4E-BD9B-92DBFFB5C294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <t>Medicare Expansion Adoption</t>
   </si>
   <si>
-    <t>Heart Disease Death Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Cancer Death Rate per 100,000</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
@@ -110,26 +104,35 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>2018__Uninsured</t>
-  </si>
-  <si>
-    <t>No care due to cost</t>
-  </si>
-  <si>
-    <t>Trouble Paying Off Medical Bills</t>
-  </si>
-  <si>
-    <t>Poor Mental Health</t>
-  </si>
-  <si>
-    <t>Poor Health</t>
+    <t>Heart Disease Death Rate</t>
+  </si>
+  <si>
+    <t>Cancer Death Rate</t>
+  </si>
+  <si>
+    <t>% Adults, Poor Health</t>
+  </si>
+  <si>
+    <t>% Adults, Poor Mental Health</t>
+  </si>
+  <si>
+    <t>% Adults, No care due to cost</t>
+  </si>
+  <si>
+    <t>% Adults, Trouble Paying Medical Bills</t>
+  </si>
+  <si>
+    <t>% Adults Uninsured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +160,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,10 +185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,9 +199,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,16 +520,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD2A0E-4372-0B42-B466-ABF5C42E17C6}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -524,25 +540,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="2"/>
       <c r="L1" s="2"/>
@@ -558,10 +574,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>157.9</v>
@@ -569,19 +585,19 @@
       <c r="D2" s="4">
         <v>149.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0.159</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>0.24060000000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>0.14964</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <v>0.35599999999999998</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>0.11149000000000001</v>
       </c>
       <c r="J2" s="4"/>
@@ -598,10 +614,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>147</v>
@@ -609,19 +625,19 @@
       <c r="D3" s="4">
         <v>162.1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>0.18</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>0.2455</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>0.11768000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>7.8496999999999997E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -638,10 +654,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>145.69999999999999</v>
@@ -649,19 +665,19 @@
       <c r="D4" s="4">
         <v>150.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>0.14500000000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>0.20469999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>0.11817999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>0.379</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>8.4567000000000003E-2</v>
       </c>
       <c r="J4" s="4"/>
@@ -678,10 +694,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>228.5</v>
@@ -689,19 +705,19 @@
       <c r="D5" s="4">
         <v>178.1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>0.217</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>0.25559999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>0.14904000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>0.40500000000000003</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>0.136629</v>
       </c>
       <c r="J5" s="4"/>
@@ -718,10 +734,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>146.4</v>
@@ -729,19 +745,19 @@
       <c r="D6" s="4">
         <v>120</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>0.14500000000000002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>0.24529999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>0.13042000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>0.34100000000000003</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>8.9924000000000004E-2</v>
       </c>
       <c r="J6" s="4"/>
@@ -758,10 +774,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>147.9</v>
@@ -769,19 +785,19 @@
       <c r="D7" s="4">
         <v>149.30000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>0.22099999999999997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>0.13023999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>0.28599999999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>8.6832999999999994E-2</v>
       </c>
       <c r="J7" s="4"/>
@@ -798,10 +814,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>224.7</v>
@@ -809,19 +825,19 @@
       <c r="D8" s="4">
         <v>170.4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>0.22899999999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>0.25869999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>0.16209999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>0.34200000000000003</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>0.101714</v>
       </c>
       <c r="J8" s="4"/>
@@ -838,10 +854,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>143.1</v>
@@ -849,19 +865,19 @@
       <c r="D9" s="4">
         <v>141.69999999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>0.20800000000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>0.2087</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>0.16175999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>0.13152800000000001</v>
       </c>
       <c r="J9" s="4"/>
@@ -878,10 +894,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>175.8</v>
@@ -889,19 +905,19 @@
       <c r="D10" s="4">
         <v>152.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>0.191</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>0.22639999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>0.18199000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>0.33600000000000002</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>0.13774700000000001</v>
       </c>
       <c r="J10" s="4"/>
@@ -918,10 +934,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>158.9</v>
@@ -929,19 +945,19 @@
       <c r="D11" s="4">
         <v>156.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>0.21920000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>0.12126000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <v>0.34100000000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>8.7204000000000004E-2</v>
       </c>
       <c r="J11" s="4"/>
@@ -958,10 +974,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>222.1</v>
@@ -969,19 +985,19 @@
       <c r="D12" s="4">
         <v>179.7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>0.23299999999999998</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>0.23870000000000002</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>0.17563999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <v>0.41099999999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>0.122517</v>
       </c>
       <c r="J12" s="4"/>
@@ -998,10 +1014,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>188.4</v>
@@ -1009,19 +1025,19 @@
       <c r="D13" s="4">
         <v>165.3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>0.23630000000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>0.13286000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>9.3789999999999998E-2</v>
       </c>
       <c r="J13" s="4"/>
@@ -1038,10 +1054,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <v>155.5</v>
@@ -1049,19 +1065,19 @@
       <c r="D14" s="4">
         <v>154.19999999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>0.191</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>0.21510000000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>0.15054000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <v>0.34300000000000003</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="6">
         <v>0.108529</v>
       </c>
       <c r="J14" s="4"/>
@@ -1078,10 +1094,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>167</v>
@@ -1089,19 +1105,19 @@
       <c r="D15" s="4">
         <v>157.30000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>0.189</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <v>0.24469999999999997</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>0.15795999999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="6">
         <v>0.104895</v>
       </c>
       <c r="J15" s="4"/>
@@ -1118,10 +1134,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
         <v>156.30000000000001</v>
@@ -1129,19 +1145,19 @@
       <c r="D16" s="4">
         <v>145.19999999999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <v>0.18590000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6">
         <v>0.10505</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="6">
         <v>9.3584000000000001E-2</v>
       </c>
       <c r="J16" s="4"/>
@@ -1158,10 +1174,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <v>202.4</v>
@@ -1169,19 +1185,19 @@
       <c r="D17" s="4">
         <v>168</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>0.22699999999999998</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <v>0.26340000000000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="6">
         <v>0.15812000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>0.313</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="6">
         <v>0.10177600000000001</v>
       </c>
       <c r="J17" s="4"/>
@@ -1198,10 +1214,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4">
         <v>170</v>
@@ -1209,19 +1225,19 @@
       <c r="D18" s="4">
         <v>142.9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>0.191</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <v>0.2044</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <v>0.16847000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
         <v>0.33700000000000002</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="6">
         <v>0.176901</v>
       </c>
       <c r="J18" s="4"/>
@@ -1238,10 +1254,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4">
         <v>157.80000000000001</v>
@@ -1249,19 +1265,19 @@
       <c r="D19" s="4">
         <v>151.5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>0.156</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>0.2238</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <v>9.9250000000000005E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>0.29299999999999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="6">
         <v>5.5386999999999999E-2</v>
       </c>
       <c r="J19" s="4"/>
@@ -1278,10 +1294,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
         <v>152.69999999999999</v>
@@ -1289,19 +1305,19 @@
       <c r="D20" s="4">
         <v>140.6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>0.159</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <v>0.20040000000000002</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="6">
         <v>0.13167999999999999</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
         <v>0.436</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="6">
         <v>0.105625</v>
       </c>
       <c r="J20" s="4"/>
